--- a/data/statistical/filled_NaN_xlsx/北京市_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/北京市_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>70.90000000000001</v>
       </c>
       <c r="E2">
-        <v>8374.526783496141</v>
+        <v>8374.526785373688</v>
       </c>
       <c r="F2">
         <v>10284.6</v>
@@ -609,85 +609,85 @@
         <v>0.87</v>
       </c>
       <c r="H2">
-        <v>82.77531243547855</v>
+        <v>82.77531243539124</v>
       </c>
       <c r="I2">
-        <v>2.170165118674049</v>
+        <v>2.170165118353907</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-273.9849663991481</v>
       </c>
       <c r="K2">
-        <v>19.36731503246119</v>
+        <v>19.36731503339252</v>
       </c>
       <c r="L2">
-        <v>0.5929922871767417</v>
+        <v>0.5929922871775375</v>
       </c>
       <c r="M2">
-        <v>40.0117361729499</v>
+        <v>40.01173617329914</v>
       </c>
       <c r="N2">
-        <v>163.9439901830861</v>
+        <v>198.2458185422612</v>
       </c>
       <c r="O2">
-        <v>29.34085040679201</v>
+        <v>29.34085039561614</v>
       </c>
       <c r="P2">
-        <v>113.2831996882987</v>
+        <v>149.4953565304859</v>
       </c>
       <c r="Q2">
         <v>100</v>
       </c>
       <c r="R2">
-        <v>32.51073528523557</v>
+        <v>32.510735283955</v>
       </c>
       <c r="S2">
-        <v>34087.60167169571</v>
+        <v>34087.60167717934</v>
       </c>
       <c r="T2">
-        <v>12145.61035764217</v>
+        <v>12145.61035558581</v>
       </c>
       <c r="U2">
-        <v>1.703692307626625</v>
+        <v>1.703692307728488</v>
       </c>
       <c r="V2">
-        <v>51.41969040222466</v>
+        <v>51.41969040490221</v>
       </c>
       <c r="W2">
-        <v>74.45507692219689</v>
+        <v>74.45507692499086</v>
       </c>
       <c r="X2">
-        <v>13035.47746825537</v>
+        <v>13687.79512421588</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-25.84548804489896</v>
       </c>
       <c r="Z2">
-        <v>22289.09414979178</v>
+        <v>29162.35790882153</v>
       </c>
       <c r="AA2">
-        <v>257.4675492306367</v>
+        <v>8.174825180904008</v>
       </c>
       <c r="AB2">
-        <v>1277265.143489838</v>
+        <v>811679.3035812378</v>
       </c>
       <c r="AC2">
-        <v>6321260.651519775</v>
+        <v>463040.0471954346</v>
       </c>
       <c r="AD2">
-        <v>29405.39859819412</v>
+        <v>-331.5751748420298</v>
       </c>
       <c r="AE2">
-        <v>61136.44039487839</v>
+        <v>-14208.90500116348</v>
       </c>
       <c r="AF2">
-        <v>142088.4698123932</v>
+        <v>210.1950643140708</v>
       </c>
       <c r="AG2">
-        <v>169951.1610383987</v>
+        <v>1623.486904243971</v>
       </c>
       <c r="AH2">
-        <v>65042.04177424312</v>
+        <v>61373.08475327492</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>-0.09</v>
       </c>
       <c r="H3">
-        <v>83.17663815787819</v>
+        <v>83.17663815779088</v>
       </c>
       <c r="I3">
         <v>1.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-192.2871694364585</v>
       </c>
       <c r="K3">
         <v>18.7110476793325</v>
@@ -743,13 +743,13 @@
         <v>100</v>
       </c>
       <c r="R3">
-        <v>29.42362744361162</v>
+        <v>29.42362744186539</v>
       </c>
       <c r="S3">
         <v>43451.6</v>
       </c>
       <c r="T3">
-        <v>10791.68846285343</v>
+        <v>10791.68846109509</v>
       </c>
       <c r="U3">
         <v>1.76</v>
@@ -764,34 +764,34 @@
         <v>4842</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-16.92997987801209</v>
       </c>
       <c r="Z3">
-        <v>31264.54207241558</v>
+        <v>36914.01343063414</v>
       </c>
       <c r="AA3">
-        <v>282.3900226334241</v>
+        <v>12.1958042010956</v>
       </c>
       <c r="AB3">
-        <v>1169630.973152161</v>
+        <v>688670.4071578979</v>
       </c>
       <c r="AC3">
-        <v>5456208.910827637</v>
+        <v>393310.6944198608</v>
       </c>
       <c r="AD3">
-        <v>24233.80419206619</v>
+        <v>-268.8444056045264</v>
       </c>
       <c r="AE3">
-        <v>65068.70507860184</v>
+        <v>-12079.37306344509</v>
       </c>
       <c r="AF3">
-        <v>119411.0975031853</v>
+        <v>8095.182140288943</v>
       </c>
       <c r="AG3">
-        <v>135691.68795681</v>
+        <v>614.7457800705427</v>
       </c>
       <c r="AH3">
-        <v>61635.07988733053</v>
+        <v>52824.55014228821</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>0.74</v>
       </c>
       <c r="H4">
-        <v>83.55956617645279</v>
+        <v>83.55956617638731</v>
       </c>
       <c r="I4">
         <v>1.3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-109.6310727188829</v>
       </c>
       <c r="K4">
         <v>15.5108344828952</v>
@@ -847,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>26.77338234696072</v>
+        <v>26.77338234486524</v>
       </c>
       <c r="S4">
         <v>47337.2</v>
@@ -868,34 +868,34 @@
         <v>10435</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-8.804116963874549</v>
       </c>
       <c r="Z4">
         <v>31527</v>
       </c>
       <c r="AA4">
-        <v>255.9436188101542</v>
+        <v>16.1688311733451</v>
       </c>
       <c r="AB4">
-        <v>1077872.693687439</v>
+        <v>576254.993347168</v>
       </c>
       <c r="AC4">
-        <v>4670909.144195557</v>
+        <v>330060.0215167999</v>
       </c>
       <c r="AD4">
-        <v>19706.84914636612</v>
+        <v>-201.7085414603353</v>
       </c>
       <c r="AE4">
-        <v>68292.97021222115</v>
+        <v>-10096.84716230631</v>
       </c>
       <c r="AF4">
-        <v>98645.57872056961</v>
+        <v>-2009.582437973165</v>
       </c>
       <c r="AG4">
-        <v>105247.7966461182</v>
+        <v>997.6883658325837</v>
       </c>
       <c r="AH4">
-        <v>58274.68378457427</v>
+        <v>45076.61208438873</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>2.1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-26.0166762471199</v>
       </c>
       <c r="K5">
         <v>14.0702659580574</v>
@@ -972,34 +972,34 @@
         <v>13844</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1.467899302719161</v>
       </c>
       <c r="Z5">
         <v>12186</v>
       </c>
       <c r="AA5">
-        <v>275.4991058339025</v>
+        <v>20.09390609771071</v>
       </c>
       <c r="AB5">
-        <v>1001990.305080414</v>
+        <v>474433.0621452332</v>
       </c>
       <c r="AC5">
-        <v>3965361.351593018</v>
+        <v>273288.0284805298</v>
       </c>
       <c r="AD5">
-        <v>15824.53346157074</v>
+        <v>-130.167582416907</v>
       </c>
       <c r="AE5">
-        <v>70809.23579549789</v>
+        <v>-8261.327297866344</v>
       </c>
       <c r="AF5">
-        <v>79791.91346406937</v>
+        <v>4665.113665997938</v>
       </c>
       <c r="AG5">
-        <v>78619.48710155487</v>
+        <v>1625.797172843027</v>
       </c>
       <c r="AH5">
-        <v>54960.85346595943</v>
+        <v>38129.27057981491</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>16513</v>
       </c>
       <c r="Y6">
-        <v>5.078673099167645</v>
+        <v>5.078673105686903</v>
       </c>
       <c r="Z6">
         <v>12777</v>
       </c>
       <c r="AA6">
-        <v>274.7939714253176</v>
+        <v>23.9710289741779</v>
       </c>
       <c r="AB6">
-        <v>941983.8073348999</v>
+        <v>383204.6135559082</v>
       </c>
       <c r="AC6">
-        <v>3339565.533050537</v>
+        <v>222994.7153110504</v>
       </c>
       <c r="AD6">
-        <v>12586.85713768005</v>
+        <v>-54.22152846679091</v>
       </c>
       <c r="AE6">
-        <v>72617.50182843208</v>
+        <v>-6572.813470005989</v>
       </c>
       <c r="AF6">
-        <v>62850.10173416138</v>
+        <v>3629.741719655855</v>
       </c>
       <c r="AG6">
-        <v>55806.75932598114</v>
+        <v>1699.056456281391</v>
       </c>
       <c r="AH6">
-        <v>51693.58893147111</v>
+        <v>31982.52562832832</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1150,7 +1150,7 @@
         <v>187.2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-2.955240885727108</v>
       </c>
       <c r="P7">
         <v>103.3</v>
@@ -1186,28 +1186,28 @@
         <v>13337</v>
       </c>
       <c r="AA7">
-        <v>247.0198444522517</v>
+        <v>27.8001998027612</v>
       </c>
       <c r="AB7">
-        <v>897853.2004623413</v>
+        <v>302569.6475868225</v>
       </c>
       <c r="AC7">
-        <v>2793521.688598633</v>
+        <v>179180.0820140839</v>
       </c>
       <c r="AD7">
-        <v>9993.820174217224</v>
+        <v>26.12962038628757</v>
       </c>
       <c r="AE7">
-        <v>73717.76831126213</v>
+        <v>-5031.305678784847</v>
       </c>
       <c r="AF7">
-        <v>47820.14353132248</v>
+        <v>11662.85928197014</v>
       </c>
       <c r="AG7">
-        <v>36809.6133184433</v>
+        <v>2226.274988825959</v>
       </c>
       <c r="AH7">
-        <v>48472.89018109441</v>
+        <v>26636.37723064423</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1254,7 +1254,7 @@
         <v>192.1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-4.673779744654894</v>
       </c>
       <c r="P8">
         <v>159.8</v>
@@ -1290,28 +1290,28 @@
         <v>15548</v>
       </c>
       <c r="AA8">
-        <v>276.143226527289</v>
+        <v>31.58141858343151</v>
       </c>
       <c r="AB8">
-        <v>869598.4844436646</v>
+        <v>232528.1642227173</v>
       </c>
       <c r="AC8">
-        <v>2327229.818145752</v>
+        <v>141844.1285839081</v>
       </c>
       <c r="AD8">
-        <v>8045.422571897507</v>
+        <v>110.8858641460538</v>
       </c>
       <c r="AE8">
-        <v>74110.03524303436</v>
+        <v>-3636.80392408371</v>
       </c>
       <c r="AF8">
-        <v>34702.03885412216</v>
+        <v>1039.532355548055</v>
       </c>
       <c r="AG8">
-        <v>21628.04907989502</v>
+        <v>1104.956384952217</v>
       </c>
       <c r="AH8">
-        <v>45298.75721487403</v>
+        <v>22090.82538557053</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1373,7 +1373,7 @@
         <v>75447</v>
       </c>
       <c r="T9">
-        <v>4418.027578294277</v>
+        <v>4418.027577877045</v>
       </c>
       <c r="U9">
         <v>1.72</v>
@@ -1394,28 +1394,28 @@
         <v>17566</v>
       </c>
       <c r="AA9">
-        <v>283.9743813936709</v>
+        <v>35.31468531621795</v>
       </c>
       <c r="AB9">
-        <v>857219.6592903137</v>
+        <v>173080.1634712219</v>
       </c>
       <c r="AC9">
-        <v>1940689.921722412</v>
+        <v>110986.8550205231</v>
       </c>
       <c r="AD9">
-        <v>6741.664330244064</v>
+        <v>200.0472028069198</v>
       </c>
       <c r="AE9">
-        <v>73794.30262494087</v>
+        <v>-2389.30820608139</v>
       </c>
       <c r="AF9">
-        <v>23495.78770303726</v>
+        <v>1620.457162444306</v>
       </c>
       <c r="AG9">
-        <v>10262.0666103363</v>
+        <v>1852.327092660107</v>
       </c>
       <c r="AH9">
-        <v>42171.19003278017</v>
+        <v>18345.87009358406</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>13887</v>
       </c>
       <c r="AA10">
-        <v>285.4009829885683</v>
+        <v>39.00000000195</v>
       </c>
       <c r="AB10">
-        <v>860716.7250099182</v>
+        <v>124225.645347595</v>
       </c>
       <c r="AC10">
-        <v>1633901.999359131</v>
+        <v>86608.2613754272</v>
       </c>
       <c r="AD10">
-        <v>6082.545449495316</v>
+        <v>293.613636387512</v>
       </c>
       <c r="AE10">
-        <v>72770.57045650482</v>
+        <v>-1288.818524777889</v>
       </c>
       <c r="AF10">
-        <v>14201.39007806778</v>
+        <v>291.515485726885</v>
       </c>
       <c r="AG10">
-        <v>2711.665908813477</v>
+        <v>1519.16811750947</v>
       </c>
       <c r="AH10">
-        <v>39090.18863479793</v>
+        <v>15401.5113618374</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>20796</v>
       </c>
       <c r="AA11">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="AB11">
-        <v>741991</v>
+        <v>42298</v>
       </c>
       <c r="AC11">
-        <v>1000254</v>
+        <v>44283</v>
       </c>
       <c r="AD11">
-        <v>4112</v>
+        <v>312</v>
       </c>
       <c r="AE11">
-        <v>58739</v>
+        <v>5</v>
       </c>
       <c r="AF11">
-        <v>1504</v>
+        <v>780</v>
       </c>
       <c r="AG11">
-        <v>9080</v>
+        <v>1115</v>
       </c>
       <c r="AH11">
-        <v>41750</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1685,7 +1685,7 @@
         <v>82699</v>
       </c>
       <c r="T12">
-        <v>2356.113875597715</v>
+        <v>2356.113875776529</v>
       </c>
       <c r="U12">
         <v>1.92</v>
@@ -1706,28 +1706,28 @@
         <v>35752</v>
       </c>
       <c r="AA12">
-        <v>287</v>
+        <v>56</v>
       </c>
       <c r="AB12">
-        <v>922229</v>
+        <v>55006</v>
       </c>
       <c r="AC12">
-        <v>1249324</v>
+        <v>52986</v>
       </c>
       <c r="AD12">
-        <v>7861</v>
+        <v>522</v>
       </c>
       <c r="AE12">
-        <v>85485</v>
+        <v>883</v>
       </c>
       <c r="AF12">
-        <v>1016</v>
+        <v>439</v>
       </c>
       <c r="AG12">
-        <v>9511</v>
+        <v>3219</v>
       </c>
       <c r="AH12">
-        <v>36693</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1789,7 +1789,7 @@
         <v>87848</v>
       </c>
       <c r="T13">
-        <v>1835.463639825583</v>
+        <v>1835.463640213013</v>
       </c>
       <c r="U13">
         <v>2.22</v>
@@ -1810,28 +1810,28 @@
         <v>45813</v>
       </c>
       <c r="AA13">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="AB13">
-        <v>1065430</v>
+        <v>61105</v>
       </c>
       <c r="AC13">
-        <v>1500594</v>
+        <v>64896</v>
       </c>
       <c r="AD13">
-        <v>8714</v>
+        <v>697</v>
       </c>
       <c r="AE13">
-        <v>78880</v>
+        <v>55</v>
       </c>
       <c r="AF13">
-        <v>975</v>
+        <v>486</v>
       </c>
       <c r="AG13">
-        <v>5475</v>
+        <v>943</v>
       </c>
       <c r="AH13">
-        <v>16091</v>
+        <v>17936</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>22937</v>
       </c>
       <c r="AA14">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="AB14">
-        <v>1107598</v>
+        <v>75157</v>
       </c>
       <c r="AC14">
-        <v>1564368</v>
+        <v>79022</v>
       </c>
       <c r="AD14">
-        <v>10399</v>
+        <v>597</v>
       </c>
       <c r="AE14">
-        <v>56578</v>
+        <v>1643.07983398437</v>
       </c>
       <c r="AF14">
-        <v>693</v>
+        <v>512</v>
       </c>
       <c r="AG14">
-        <v>5572</v>
+        <v>914</v>
       </c>
       <c r="AH14">
-        <v>13838</v>
+        <v>14735</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2012,34 +2012,34 @@
         <v>3877</v>
       </c>
       <c r="Y15">
-        <v>28.46378840925172</v>
+        <v>28.46378840715624</v>
       </c>
       <c r="Z15">
         <v>20331</v>
       </c>
       <c r="AA15">
-        <v>313</v>
+        <v>54</v>
       </c>
       <c r="AB15">
-        <v>1202250</v>
+        <v>80008</v>
       </c>
       <c r="AC15">
-        <v>1498012</v>
+        <v>72952</v>
       </c>
       <c r="AD15">
-        <v>13044</v>
+        <v>1027</v>
       </c>
       <c r="AE15">
-        <v>44286</v>
+        <v>2008.5393319726</v>
       </c>
       <c r="AF15">
-        <v>675</v>
+        <v>23883</v>
       </c>
       <c r="AG15">
-        <v>4778</v>
+        <v>1299</v>
       </c>
       <c r="AH15">
-        <v>32478</v>
+        <v>34001</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>19064</v>
       </c>
       <c r="AA16">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="AB16">
-        <v>1299264</v>
+        <v>63001</v>
       </c>
       <c r="AC16">
-        <v>1572389</v>
+        <v>90790</v>
       </c>
       <c r="AD16">
-        <v>16129</v>
+        <v>898</v>
       </c>
       <c r="AE16">
-        <v>42185</v>
+        <v>1310</v>
       </c>
       <c r="AF16">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="AG16">
-        <v>5817</v>
+        <v>2563</v>
       </c>
       <c r="AH16">
-        <v>40906</v>
+        <v>14560</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>1077.6712</v>
       </c>
       <c r="K17">
-        <v>6.708546955662314</v>
+        <v>6.708546954905614</v>
       </c>
       <c r="L17">
-        <v>0.07976743692546506</v>
+        <v>0.07976743692364607</v>
       </c>
       <c r="M17">
         <v>0.233446867992578</v>
@@ -2226,28 +2226,28 @@
         <v>40339</v>
       </c>
       <c r="AA17">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AB17">
-        <v>1317647.4</v>
+        <v>88562.8</v>
       </c>
       <c r="AC17">
-        <v>1622255.3</v>
+        <v>115358.5</v>
       </c>
       <c r="AD17">
-        <v>19561</v>
+        <v>1059</v>
       </c>
       <c r="AE17">
-        <v>31448</v>
+        <v>3887</v>
       </c>
       <c r="AF17">
-        <v>100</v>
+        <v>-1578.57336156061</v>
       </c>
       <c r="AG17">
-        <v>6454</v>
+        <v>2966</v>
       </c>
       <c r="AH17">
-        <v>17251</v>
+        <v>20228</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>1320</v>
       </c>
       <c r="K18">
-        <v>6.987258307635784</v>
+        <v>6.987258306704462</v>
       </c>
       <c r="L18">
-        <v>0.04341012681339862</v>
+        <v>0.04341012681123857</v>
       </c>
       <c r="M18">
         <v>0.0881267072075905</v>
@@ -2312,13 +2312,13 @@
         <v>309</v>
       </c>
       <c r="U18">
-        <v>2.748835164915363</v>
+        <v>2.748835164835327</v>
       </c>
       <c r="V18">
         <v>98.59999999999999</v>
       </c>
       <c r="W18">
-        <v>89.24307692283764</v>
+        <v>89.24307692050934</v>
       </c>
       <c r="X18">
         <v>10941</v>
@@ -2330,28 +2330,28 @@
         <v>29979</v>
       </c>
       <c r="AA18">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="AB18">
-        <v>1341956.8</v>
+        <v>92228.10000000001</v>
       </c>
       <c r="AC18">
-        <v>1745713.9</v>
+        <v>109466.8</v>
       </c>
       <c r="AD18">
-        <v>24753</v>
+        <v>1182</v>
       </c>
       <c r="AE18">
-        <v>53926.1</v>
+        <v>1763</v>
       </c>
       <c r="AF18">
-        <v>8672.93602848053</v>
+        <v>969.790366367111</v>
       </c>
       <c r="AG18">
-        <v>144374.5</v>
+        <v>2280.8</v>
       </c>
       <c r="AH18">
-        <v>8778.4</v>
+        <v>16839.5</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>83.7</v>
       </c>
       <c r="E19">
-        <v>52229.1517868638</v>
+        <v>52229.15178471804</v>
       </c>
       <c r="F19">
         <v>46358.1745</v>
@@ -2386,10 +2386,10 @@
         <v>1246.3</v>
       </c>
       <c r="K19">
-        <v>7.406298312591389</v>
+        <v>7.406298311543651</v>
       </c>
       <c r="L19">
-        <v>0.006785026689328788</v>
+        <v>0.006785026686827678</v>
       </c>
       <c r="M19">
         <v>0.0543661411178787</v>
@@ -2416,46 +2416,46 @@
         <v>19</v>
       </c>
       <c r="U19">
-        <v>2.934005494593293</v>
+        <v>2.93400549450962</v>
       </c>
       <c r="V19">
         <v>99.3</v>
       </c>
       <c r="W19">
-        <v>85.72473076940514</v>
+        <v>85.72473076614551</v>
       </c>
       <c r="X19">
         <v>10208</v>
       </c>
       <c r="Y19">
-        <v>18.32639642059803</v>
+        <v>18.32639641244896</v>
       </c>
       <c r="Z19">
         <v>34084</v>
       </c>
       <c r="AA19">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="AB19">
-        <v>1473136.4</v>
+        <v>90050.7</v>
       </c>
       <c r="AC19">
-        <v>2167735.7</v>
+        <v>119107.1</v>
       </c>
       <c r="AD19">
-        <v>27149</v>
+        <v>1237</v>
       </c>
       <c r="AE19">
-        <v>38880.1</v>
+        <v>2993.8</v>
       </c>
       <c r="AF19">
-        <v>16585.22014045715</v>
+        <v>9485.986166356901</v>
       </c>
       <c r="AG19">
-        <v>79664.89999999999</v>
+        <v>1434.1</v>
       </c>
       <c r="AH19">
-        <v>15392.6</v>
+        <v>8895.1</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>83.7</v>
       </c>
       <c r="E20">
-        <v>55591.18329951167</v>
+        <v>55591.18329703808</v>
       </c>
       <c r="F20">
         <v>41726.2603</v>
@@ -2490,10 +2490,10 @@
         <v>1465.6328</v>
       </c>
       <c r="K20">
-        <v>7.965666970412713</v>
+        <v>7.965666969248559</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.03010786344947292</v>
       </c>
       <c r="M20">
         <v>0.0488608145408011</v>
@@ -2517,16 +2517,16 @@
         <v>75784</v>
       </c>
       <c r="T20">
-        <v>524.0726343989372</v>
+        <v>524.0726360976696</v>
       </c>
       <c r="U20">
-        <v>3.133275694999611</v>
+        <v>3.133275694897748</v>
       </c>
       <c r="V20">
         <v>96.59999999999999</v>
       </c>
       <c r="W20">
-        <v>81.68372624460608</v>
+        <v>81.68372624111362</v>
       </c>
       <c r="X20">
         <v>10181</v>
@@ -2538,28 +2538,28 @@
         <v>41762</v>
       </c>
       <c r="AA20">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="AB20">
-        <v>1579747</v>
+        <v>166646</v>
       </c>
       <c r="AC20">
-        <v>2467159</v>
+        <v>163084</v>
       </c>
       <c r="AD20">
-        <v>31243</v>
+        <v>1426</v>
       </c>
       <c r="AE20">
-        <v>41350</v>
+        <v>749</v>
       </c>
       <c r="AF20">
-        <v>1000</v>
+        <v>8738.00781135235</v>
       </c>
       <c r="AG20">
-        <v>198939</v>
+        <v>1116.11887679684</v>
       </c>
       <c r="AH20">
-        <v>8989</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>81.67359999999999</v>
       </c>
       <c r="E21">
-        <v>59040.14233309031</v>
+        <v>59040.14233034849</v>
       </c>
       <c r="F21">
         <v>46775.7</v>
@@ -2594,19 +2594,19 @@
         <v>1263.3795</v>
       </c>
       <c r="K21">
-        <v>8.665364281274378</v>
+        <v>8.665364280052017</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.06726854359766321</v>
       </c>
       <c r="M21">
         <v>0.0353120409838203</v>
       </c>
       <c r="N21">
-        <v>166.2666504785581</v>
+        <v>201.0020005845138</v>
       </c>
       <c r="O21">
-        <v>116.7858234774321</v>
+        <v>116.7858234830201</v>
       </c>
       <c r="P21">
         <v>288.4</v>
@@ -2621,49 +2621,49 @@
         <v>90486</v>
       </c>
       <c r="T21">
-        <v>670.0397257208824</v>
+        <v>670.039727628231</v>
       </c>
       <c r="U21">
-        <v>3.346645766112488</v>
+        <v>3.346645766010624</v>
       </c>
       <c r="V21">
         <v>97.2</v>
       </c>
       <c r="W21">
-        <v>77.12006334844045</v>
+        <v>77.12006334471516</v>
       </c>
       <c r="X21">
-        <v>13409.72449923045</v>
+        <v>8762.747096052306</v>
       </c>
       <c r="Y21">
-        <v>8.519828909542412</v>
+        <v>8.519828898599371</v>
       </c>
       <c r="Z21">
         <v>24783</v>
       </c>
       <c r="AA21">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="AB21">
-        <v>2119085</v>
+        <v>310805</v>
       </c>
       <c r="AC21">
-        <v>3959513</v>
+        <v>242260</v>
       </c>
       <c r="AD21">
-        <v>43932</v>
+        <v>1684</v>
       </c>
       <c r="AE21">
-        <v>2443</v>
+        <v>1114.16955274343</v>
       </c>
       <c r="AF21">
-        <v>57992</v>
+        <v>2604.31241538645</v>
       </c>
       <c r="AG21">
-        <v>235123</v>
+        <v>1831</v>
       </c>
       <c r="AH21">
-        <v>5389</v>
+        <v>47021</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>83.90000000000001</v>
       </c>
       <c r="E22">
-        <v>62576.02888765931</v>
+        <v>62576.02888464928</v>
       </c>
       <c r="F22">
         <v>45616.8707</v>
@@ -2692,82 +2692,82 @@
         <v>87.56999999999999</v>
       </c>
       <c r="I22">
-        <v>2.649814241114655</v>
+        <v>2.649814241514832</v>
       </c>
       <c r="J22">
-        <v>1542.047926245723</v>
+        <v>1542.047926231986</v>
       </c>
       <c r="K22">
-        <v>9.505390245001763</v>
+        <v>9.505390243662987</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.1046970137577432</v>
       </c>
       <c r="M22">
-        <v>3.224020395660773</v>
+        <v>3.224020395777188</v>
       </c>
       <c r="N22">
-        <v>166.5812625144733</v>
+        <v>191.0976542894828</v>
       </c>
       <c r="O22">
-        <v>137.1904551414773</v>
+        <v>137.1904551461339</v>
       </c>
       <c r="P22">
-        <v>164.890308642588</v>
+        <v>68.51521616748654</v>
       </c>
       <c r="Q22">
         <v>100</v>
       </c>
       <c r="R22">
-        <v>53.77249999938067</v>
+        <v>53.77250000589993</v>
       </c>
       <c r="S22">
         <v>75322</v>
       </c>
       <c r="T22">
-        <v>899.3339830040932</v>
+        <v>899.3339850902557</v>
       </c>
       <c r="U22">
-        <v>3.574115707950114</v>
+        <v>3.574115707837336</v>
       </c>
       <c r="V22">
-        <v>97.29653250798583</v>
+        <v>97.29653250542469</v>
       </c>
       <c r="W22">
-        <v>72.03374208160676</v>
+        <v>72.03374207741581</v>
       </c>
       <c r="X22">
-        <v>10060.02257730486</v>
+        <v>9867.607093313345</v>
       </c>
       <c r="Y22">
-        <v>2.432077274657786</v>
+        <v>2.432077262783423</v>
       </c>
       <c r="Z22">
-        <v>27113.36436312569</v>
+        <v>16415.23525170169</v>
       </c>
       <c r="AA22">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="AB22">
-        <v>2209861.5</v>
+        <v>411215.4</v>
       </c>
       <c r="AC22">
-        <v>4359766.7</v>
+        <v>341802.9</v>
       </c>
       <c r="AD22">
-        <v>49331</v>
+        <v>1784</v>
       </c>
       <c r="AE22">
-        <v>1483.7</v>
+        <v>450.58679497242</v>
       </c>
       <c r="AF22">
-        <v>51793.19363546371</v>
+        <v>7684.03490208206</v>
       </c>
       <c r="AG22">
-        <v>127692.1</v>
+        <v>316.5</v>
       </c>
       <c r="AH22">
-        <v>8158.1</v>
+        <v>55062.7</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>84.8</v>
       </c>
       <c r="E23">
-        <v>66198.84296321869</v>
+        <v>66198.84295991063</v>
       </c>
       <c r="F23">
-        <v>52437.15665322542</v>
+        <v>52437.1566529125</v>
       </c>
       <c r="G23">
         <v>-0.5</v>
       </c>
       <c r="H23">
-        <v>87.33963480392413</v>
+        <v>87.33963480398234</v>
       </c>
       <c r="I23">
-        <v>2.905267285401351</v>
+        <v>2.905267285859736</v>
       </c>
       <c r="J23">
-        <v>1642.911718301941</v>
+        <v>1642.91171828704</v>
       </c>
       <c r="K23">
-        <v>10.48574486176949</v>
+        <v>10.48574486025609</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.1423932739298266</v>
       </c>
       <c r="M23">
         <v>4.950026091188192</v>
       </c>
       <c r="N23">
-        <v>165.6434289872968</v>
+        <v>196.751818265059</v>
       </c>
       <c r="O23">
-        <v>159.1753132701851</v>
+        <v>159.1753132753074</v>
       </c>
       <c r="P23">
-        <v>130.6463079207102</v>
+        <v>106.9527076796804</v>
       </c>
       <c r="Q23">
         <v>100</v>
       </c>
       <c r="R23">
-        <v>59.42264705733396</v>
+        <v>59.4226470652502</v>
       </c>
       <c r="S23">
-        <v>64519.25587296486</v>
+        <v>64519.25587010384</v>
       </c>
       <c r="T23">
-        <v>1211.955406159163</v>
+        <v>1211.955408424139</v>
       </c>
       <c r="U23">
-        <v>3.815685520497937</v>
+        <v>3.815685520377883</v>
       </c>
       <c r="V23">
-        <v>97.1215975235682</v>
+        <v>97.12159752071602</v>
       </c>
       <c r="W23">
-        <v>66.42476244340651</v>
+        <v>66.42476243898273</v>
       </c>
       <c r="X23">
-        <v>8726.033347600252</v>
+        <v>8746.993595309199</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-4.44531962624751</v>
       </c>
       <c r="Z23">
-        <v>23777.43596229918</v>
+        <v>29020.62634944777</v>
       </c>
       <c r="AA23">
-        <v>287.2672945039094</v>
+        <v>82.54545454621257</v>
       </c>
       <c r="AB23">
-        <v>2350884.647865295</v>
+        <v>453123.8272285461</v>
       </c>
       <c r="AC23">
-        <v>4903088.646697998</v>
+        <v>359246.4113616943</v>
       </c>
       <c r="AD23">
-        <v>56176.18182706833</v>
+        <v>1910.840909060091</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>-360.0020008087158</v>
       </c>
       <c r="AF23">
-        <v>67352.89185285568</v>
+        <v>11474.49925272733</v>
       </c>
       <c r="AG23">
-        <v>251774.3977384567</v>
+        <v>1179.238889717152</v>
       </c>
       <c r="AH23">
-        <v>3274.656817167997</v>
+        <v>49979.13409280777</v>
       </c>
     </row>
   </sheetData>
